--- a/target/test-classes/TestData/ExcelWrite.xlsx
+++ b/target/test-classes/TestData/ExcelWrite.xlsx
@@ -6,7 +6,7 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="surya" r:id="rId3" sheetId="1"/>
+    <sheet name="infosys" r:id="rId3" sheetId="1"/>
   </sheets>
 </workbook>
 </file>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t>The email address you entered isn't connected to an account. Find your account and log in.</t>
+    <t>surya</t>
   </si>
 </sst>
 </file>
